--- a/src/main/resources/тестовый сценарий №1 3 сотрудников.xlsx
+++ b/src/main/resources/тестовый сценарий №1 3 сотрудников.xlsx
@@ -388,7 +388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,10 +414,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
